--- a/check_ip/testcase.xlsx
+++ b/check_ip/testcase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习文档\周末班\lianxi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoweichen\Desktop\githome\check_ip\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -598,7 +598,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -780,7 +780,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>28</v>
